--- a/src/attributions/attributions_saliency_traj_317.xlsx
+++ b/src/attributions/attributions_saliency_traj_317.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01215079426765442</v>
+        <v>0.02733747102320194</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06233059987425804</v>
+        <v>0.1993739604949951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1361201554536819</v>
+        <v>0.02616443671286106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5212669968605042</v>
+        <v>0.0702783390879631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9008582234382629</v>
+        <v>0.01418162137269974</v>
       </c>
       <c r="F2" t="n">
-        <v>1.415815234184265</v>
+        <v>0.04348403587937355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2826064825057983</v>
+        <v>0.01158393546938896</v>
       </c>
       <c r="H2" t="n">
-        <v>1.706878662109375</v>
+        <v>0.001738849096000195</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1143620908260345</v>
+        <v>0.01351279299706221</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08050175756216049</v>
+        <v>0.004828657489269972</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1640830039978027</v>
+        <v>0.1618916690349579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00175625691190362</v>
+        <v>0.001254833652637899</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4648256003856659</v>
+        <v>0.05971120670437813</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9324378967285156</v>
+        <v>0.007314071524888277</v>
       </c>
       <c r="O2" t="n">
-        <v>1.426393270492554</v>
+        <v>0.0131966033950448</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1539941132068634</v>
+        <v>0.004670766182243824</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72351348400116</v>
+        <v>0.01536955684423447</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1342242807149887</v>
+        <v>0.01707750372588634</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06965525448322296</v>
+        <v>0.006428624968975782</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03654199838638306</v>
+        <v>0.01416045054793358</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006696454249322414</v>
+        <v>0.01756582222878933</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1574196368455887</v>
+        <v>0.02478708140552044</v>
       </c>
       <c r="W2" t="n">
-        <v>0.242165744304657</v>
+        <v>0.0174082238227129</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3430322408676147</v>
+        <v>0.02133524790406227</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00981312058866024</v>
+        <v>0.0001982032554224133</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2626465559005737</v>
+        <v>0.0212969034910202</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1036916375160217</v>
+        <v>0.007943388074636459</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2249979227781296</v>
+        <v>0.02183312550187111</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03296394646167755</v>
+        <v>0.008092316798865795</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02631564810872078</v>
+        <v>0.03562136739492416</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4400620460510254</v>
+        <v>0.02617316320538521</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.712860107421875</v>
+        <v>0.004305518232285976</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06970961391925812</v>
+        <v>0.01543444022536278</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5799548625946045</v>
+        <v>0.008597162552177906</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.09351365268230438</v>
+        <v>0.003000006079673767</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.05368879437446594</v>
+        <v>0.01671427488327026</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.09232068061828613</v>
+        <v>0.01183532830327749</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1270645409822464</v>
+        <v>0.02245968766510487</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.3066597580909729</v>
+        <v>0.004751185420900583</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.04810680449008942</v>
+        <v>0.0004055378376506269</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.618463933467865</v>
+        <v>0.0001683633308857679</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05076653137803078</v>
+        <v>0.0173754021525383</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.03809033334255219</v>
+        <v>0.0004444794030860066</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.09149070084095001</v>
+        <v>0.01563872769474983</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1909155547618866</v>
+        <v>0.0118379183113575</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2884193658828735</v>
+        <v>0.01760271564126015</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.3945464193820953</v>
+        <v>0.090536929666996</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1184561252593994</v>
+        <v>0.01862319186329842</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.2238403558731079</v>
+        <v>0.02777765318751335</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2528423368930817</v>
+        <v>0.03718170523643494</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.7580374479293823</v>
+        <v>0.01039480697363615</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04468676820397377</v>
+        <v>0.001503163017332554</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.6220200061798096</v>
+        <v>0.006569250486791134</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04952448979020119</v>
+        <v>0.008647393435239792</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1803488880395889</v>
+        <v>0.001384876668453217</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.04269416257739067</v>
+        <v>0.05075875297188759</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01454204972833395</v>
+        <v>0.02386496961116791</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.4605458378791809</v>
+        <v>0.01162551529705524</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.5030054450035095</v>
+        <v>0.01026095077395439</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.1122787743806839</v>
+        <v>0.001469017937779427</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5025761127471924</v>
+        <v>0.01641861349344254</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.4760981202125549</v>
+        <v>0.0004083993844687939</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0609339252114296</v>
+        <v>0.009393520653247833</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.09880406409502029</v>
+        <v>0.005775338970124722</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1458472609519958</v>
+        <v>0.01341641414910555</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.1213661581277847</v>
+        <v>0.007600280456244946</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.001520799822174013</v>
+        <v>0.01846588589251041</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05356086045503616</v>
+        <v>0.01461133640259504</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.1094819009304047</v>
+        <v>0.02035575360059738</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.4848767817020416</v>
+        <v>0.009443811140954494</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.05354607850313187</v>
+        <v>0.00140154454857111</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.1471439599990845</v>
+        <v>0.007541351020336151</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04135200381278992</v>
+        <v>0.02829473093152046</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.06586895138025284</v>
+        <v>0.06268146634101868</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003578364849090576</v>
+        <v>0.01083428878337145</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1192465126514435</v>
+        <v>0.02755966410040855</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.009014999493956566</v>
+        <v>0.007390968501567841</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.525269627571106</v>
+        <v>0.01726437918841839</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02037764340639114</v>
+        <v>0.001170595409348607</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.4523712694644928</v>
+        <v>0.01331128552556038</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.07897716760635376</v>
+        <v>0.02061082795262337</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.08861547708511353</v>
+        <v>0.003925581928342581</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.03808624297380447</v>
+        <v>0.03071880340576172</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.07339774072170258</v>
+        <v>0.004142946097999811</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1393542438745499</v>
+        <v>0.01630369201302528</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.2267083525657654</v>
+        <v>0.003605354577302933</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.2213592827320099</v>
+        <v>0.007918634451925755</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.01636878028512001</v>
+        <v>0.005276503041386604</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.2740822732448578</v>
+        <v>0.002079178113490343</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.002181079238653183</v>
+        <v>0.009539692662656307</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.1584696471691132</v>
+        <v>0.006169428117573261</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.05093565583229065</v>
+        <v>0.002403288381174207</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0335133820772171</v>
+        <v>0.005432974081486464</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.2654052972793579</v>
+        <v>0.007767891045659781</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.03939953446388245</v>
+        <v>0.007778478786349297</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.3901168704032898</v>
+        <v>0.03058147616684437</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.2626411914825439</v>
+        <v>0.01130580343306065</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.2959243953227997</v>
+        <v>0.01250972226262093</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.1066293939948082</v>
+        <v>0.0009589907713234425</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.1161654517054558</v>
+        <v>0.001883517135865986</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.1052078604698181</v>
+        <v>0.03226879239082336</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.07803952693939209</v>
+        <v>0.01222419086843729</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.08277293294668198</v>
+        <v>0.01702451333403587</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2068274170160294</v>
+        <v>0.005694325547665358</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2109794169664383</v>
+        <v>0.00717791635543108</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.03106588870286942</v>
+        <v>0.0009043603204190731</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.3858305215835571</v>
+        <v>0.003334634238854051</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.001114893704652786</v>
+        <v>0.006814149674028158</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.7334621548652649</v>
+        <v>0.001221777871251106</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.8363162279129028</v>
+        <v>0.07645691186189651</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.07911814749240875</v>
+        <v>0.00999565701931715</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.3799945116043091</v>
+        <v>0.08077740669250488</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.04705773293972015</v>
+        <v>0.02800302766263485</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.04523109644651413</v>
+        <v>0.01345620211213827</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.1282102167606354</v>
+        <v>0.02816469594836235</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.1081508919596672</v>
+        <v>0.001613994827494025</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.09592607617378235</v>
+        <v>0.001888175029307604</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.088863305747509</v>
+        <v>0.02187719568610191</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.1341904401779175</v>
+        <v>0.02529360167682171</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00424491660669446</v>
+        <v>0.01285548321902752</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.01338398829102516</v>
+        <v>0.02736078202724457</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.07743154466152191</v>
+        <v>0.02823559194803238</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.001547027379274368</v>
+        <v>0.005756234750151634</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.2277206182479858</v>
+        <v>0.003320037852972746</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.1313275098800659</v>
+        <v>0.00306182075291872</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.002007987350225449</v>
+        <v>0.008909208700060844</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.02050130814313889</v>
+        <v>0.004778253380209208</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.09944248199462891</v>
+        <v>0.01305853109806776</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.03698794171214104</v>
+        <v>0.005974414758384228</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.006150743924081326</v>
+        <v>0.01964063756167889</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.05633015558123589</v>
+        <v>0.01604392006993294</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.09854060411453247</v>
+        <v>0.01129601802676916</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.1177645921707153</v>
+        <v>0.007896756753325462</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003976531326770782</v>
+        <v>0.02130368165671825</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.1185465008020401</v>
+        <v>0.01457502134144306</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.4107270836830139</v>
+        <v>0.008163304999470711</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.02842930518090725</v>
+        <v>0.02398014813661575</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.05697492510080338</v>
+        <v>0.01608736626803875</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.09300963580608368</v>
+        <v>0.001240956480614841</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.2029047012329102</v>
+        <v>0.01180057041347027</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.3023733794689178</v>
+        <v>0.006206792313605547</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.01524422783404589</v>
+        <v>0.001454304321669042</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.3559404611587524</v>
+        <v>0.002925141481682658</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.004421290010213852</v>
+        <v>0.005732065998017788</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00324542447924614</v>
+        <v>0.002427953528240323</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0591014102101326</v>
+        <v>0.01114180590957403</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.1167845502495766</v>
+        <v>0.02201723679900169</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.1454070806503296</v>
+        <v>0.01095061097294092</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.4261137843132019</v>
+        <v>0.008212961256504059</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.1791907250881195</v>
+        <v>0.04856828972697258</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0272535290569067</v>
+        <v>0.007118582725524902</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.2732296884059906</v>
+        <v>0.01572569459676743</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.2267795503139496</v>
+        <v>0.02066975086927414</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.1367445439100266</v>
+        <v>0.00137028656899929</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.1343490332365036</v>
+        <v>0.03474069759249687</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.1076431572437286</v>
+        <v>0.008995706215500832</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.1732725203037262</v>
+        <v>0.0171689260751009</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.2910989820957184</v>
+        <v>0.008499489165842533</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.2081098258495331</v>
+        <v>0.008852737955749035</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.01649178750813007</v>
+        <v>0.007396504282951355</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.3973137438297272</v>
+        <v>0.005597037263214588</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02902648039162159</v>
+        <v>0.009747979231178761</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.03054460883140564</v>
+        <v>0.0003872965462505817</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.1511464715003967</v>
+        <v>0.01452070940285921</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.05493563413619995</v>
+        <v>0.01317374873906374</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.09579424560070038</v>
+        <v>0.00468277744948864</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.08312033861875534</v>
+        <v>0.007940690033137798</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.1085068136453629</v>
+        <v>0.007151846773922443</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.08099282532930374</v>
+        <v>0.005910438019782305</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.07081401348114014</v>
+        <v>0.003974263090640306</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.07460140436887741</v>
+        <v>0.02015861310064793</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.1518299430608749</v>
+        <v>0.001113711856305599</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.06677920371294022</v>
+        <v>0.03307146951556206</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.025342907756567</v>
+        <v>0.03979002684354782</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.08322583884000778</v>
+        <v>0.008900300599634647</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.124263621866703</v>
+        <v>0.01769210770726204</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.3870154619216919</v>
+        <v>0.04092278704047203</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.2296027988195419</v>
+        <v>0.01406106352806091</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.4001871049404144</v>
+        <v>0.00238567590713501</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.03195971250534058</v>
+        <v>0.01350283063948154</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02911521308124065</v>
+        <v>0.001143143279477954</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.08462826162576675</v>
+        <v>0.01456711813807487</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.008386872708797455</v>
+        <v>0.01192072872072458</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.07654431462287903</v>
+        <v>0.01283716317266226</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0132608525454998</v>
+        <v>0.04984039068222046</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.1076045781373978</v>
+        <v>0.02078971639275551</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.003539431840181351</v>
+        <v>0.02836302109062672</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.07079942524433136</v>
+        <v>0.01379978097975254</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.09087085723876953</v>
+        <v>0.004931272473186255</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.217778742313385</v>
+        <v>0.001185253844596446</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04824918881058693</v>
+        <v>0.003070324892178178</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2373111993074417</v>
+        <v>0.000207196018891409</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0732894241809845</v>
+        <v>0.001819415716454387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1682550758123398</v>
+        <v>0.0007835582364350557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04370025545358658</v>
+        <v>0.0003838528355117887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03598327562212944</v>
+        <v>0.000197996327187866</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00897933728992939</v>
+        <v>0.0003879123250953853</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08149835467338562</v>
+        <v>0.0001762021129252389</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2312474846839905</v>
+        <v>0.0005532253999263048</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04610671103000641</v>
+        <v>0.002373175928369164</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2745463252067566</v>
+        <v>0.0006193300941959023</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05800766497850418</v>
+        <v>0.001600513467565179</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08276210725307465</v>
+        <v>0.0008930705371312797</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04214653372764587</v>
+        <v>8.055408397922292e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04691506549715996</v>
+        <v>4.962470848113298e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03213545307517052</v>
+        <v>0.0003553825663402677</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1059040799736977</v>
+        <v>0.0002654974232427776</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004241841845214367</v>
+        <v>0.0003779483959078789</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04422053694725037</v>
+        <v>0.0001167319423984736</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0108768567442894</v>
+        <v>0.0006358554819598794</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01538638770580292</v>
+        <v>0.0006881948793306947</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01518036983907223</v>
+        <v>0.0008610642980784178</v>
       </c>
       <c r="X5" t="n">
-        <v>0.003390317782759666</v>
+        <v>0.0002137879637302831</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004129962995648384</v>
+        <v>0.000282353488728404</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01430228445678949</v>
+        <v>0.0004107192507945001</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01872726157307625</v>
+        <v>5.295226219459437e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00534156896173954</v>
+        <v>0.000267365510808304</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.005837399512529373</v>
+        <v>4.738708958029747e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01120009087026119</v>
+        <v>0.0003740469692274928</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.04613232612609863</v>
+        <v>0.0009485709015280008</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.006110613234341145</v>
+        <v>0.000319296756060794</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0312170572578907</v>
+        <v>7.885758532211185e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.003786897286772728</v>
+        <v>0.0001133192417910323</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.06823381781578064</v>
+        <v>1.283925303141586e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.03878907859325409</v>
+        <v>0.0004904355155304074</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.06710131466388702</v>
+        <v>0.0005306651582941413</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.07814367115497589</v>
+        <v>0.0003429069765843451</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.02815143391489983</v>
+        <v>0.0005141057190485299</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02952321618795395</v>
+        <v>9.739625966176391e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.005294803995639086</v>
+        <v>0.0001080006695701741</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.004140998236835003</v>
+        <v>0.0005512760835699737</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01210683863610029</v>
+        <v>2.774095628410578e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0426640510559082</v>
+        <v>0.0006544393836520612</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.01753096841275692</v>
+        <v>3.02963271678891e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1001581698656082</v>
+        <v>0.0007258101832121611</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0772755965590477</v>
+        <v>0.001694318372756243</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1274146735668182</v>
+        <v>0.000178219546796754</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.02300220727920532</v>
+        <v>0.0003439976135268807</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.03170690685510635</v>
+        <v>0.0005765149835497141</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.08489692956209183</v>
+        <v>4.683910083258525e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.04625564068555832</v>
+        <v>9.626569226384163e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.02293097414076328</v>
+        <v>0.0005021888064220548</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.02511863596737385</v>
+        <v>6.069658775231801e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.02622555755078793</v>
+        <v>0.0002308612165506929</v>
       </c>
       <c r="BD5" t="n">
-        <v>5.977344699203968e-05</v>
+        <v>0.0009711573366075754</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.06060998141765594</v>
+        <v>8.493975474266335e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.006319276057183743</v>
+        <v>0.00110540515743196</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.09048660099506378</v>
+        <v>0.0007589497836306691</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.06377456337213516</v>
+        <v>0.0001130781456595287</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.05253378301858902</v>
+        <v>0.0001786806096788496</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.04035035520792007</v>
+        <v>0.0002262906200485304</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.02915050648152828</v>
+        <v>4.260595233063214e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.02754650637507439</v>
+        <v>0.0001141998145612888</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.03541130945086479</v>
+        <v>0.0001287478371523321</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.04472411051392555</v>
+        <v>0.0001269889035029337</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01837962120771408</v>
+        <v>0.0008897205698303878</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.04379437491297722</v>
+        <v>0.0001379388995701447</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.03016969189047813</v>
+        <v>0.0004990622401237488</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001862817909568548</v>
+        <v>5.520139529835433e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.02604020200669765</v>
+        <v>0.0003501110186334699</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.005577669944614172</v>
+        <v>0.0002332694130018353</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1049808487296104</v>
+        <v>0.0008765206439420581</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.04015148431062698</v>
+        <v>0.001218692865222692</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0725671723484993</v>
+        <v>0.0002220987807959318</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.009155780076980591</v>
+        <v>0.0005526682361960411</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.08346270024776459</v>
+        <v>5.112738654133864e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.005728455260396004</v>
+        <v>0.0005764152156189084</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.004143825732171535</v>
+        <v>1.182022970169783e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02175752632319927</v>
+        <v>0.0001102303649531677</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.03327275812625885</v>
+        <v>0.0003959815367124975</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.05181316286325455</v>
+        <v>7.149815792217851e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.06576735526323318</v>
+        <v>0.0004244328301865608</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0379515029489994</v>
+        <v>1.340282778983237e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.003948294557631016</v>
+        <v>0.000506369979120791</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01941272988915443</v>
+        <v>8.991755021270365e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.02145674079656601</v>
+        <v>6.820357157266699e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.004385617095977068</v>
+        <v>0.0001609956962056458</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.003397900145500898</v>
+        <v>0.0001274792739422992</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.00686457846313715</v>
+        <v>9.866555774351582e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.02708660811185837</v>
+        <v>0.0002621176827233285</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0286637507379055</v>
+        <v>0.0003083583724219352</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001680815126746893</v>
+        <v>4.34577523265034e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.04620595648884773</v>
+        <v>0.0009960227180272341</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.00116127822548151</v>
+        <v>0.0005439873784780502</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.03112738393247128</v>
+        <v>0.0006720480741932988</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.009644376114010811</v>
+        <v>0.000516991363838315</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.03146644681692123</v>
+        <v>0.0005770629504695535</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01173958741128445</v>
+        <v>0.0002350772119825706</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.047650545835495</v>
+        <v>1.054395397659391e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.05655264109373093</v>
+        <v>0.0003386717289686203</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.04569151997566223</v>
+        <v>0.0001142941764555871</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0006238080677576363</v>
+        <v>0.000474871281767264</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.04964554309844971</v>
+        <v>0.0001434025180060416</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.02154908515512943</v>
+        <v>5.735171362175606e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.01075557619333267</v>
+        <v>0.0001227949251187965</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.004413738381117582</v>
+        <v>2.822396163537633e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.007874429225921631</v>
+        <v>1.565031197969802e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003953713923692703</v>
+        <v>0.0002473637869115919</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.1515878438949585</v>
+        <v>0.001981575274839997</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.08082622289657593</v>
+        <v>0.0007214704528450966</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.02627205103635788</v>
+        <v>0.001401277258992195</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.04205593466758728</v>
+        <v>3.206785913789645e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01818937622010708</v>
+        <v>0.000794075895100832</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0286309327930212</v>
+        <v>0.0003837745753116906</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.01869045943021774</v>
+        <v>1.280525339097949e-07</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.02165906876325607</v>
+        <v>0.0003320814284961671</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.004638090264052153</v>
+        <v>0.0005038387607783079</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0743844211101532</v>
+        <v>5.240406972006895e-05</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.02362253330647945</v>
+        <v>0.0001996138016693294</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.02365501970052719</v>
+        <v>0.0008137834956869483</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.02022898383438587</v>
+        <v>0.0001988979784073308</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.009434658102691174</v>
+        <v>9.522194159217179e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0002058651298284531</v>
+        <v>9.279426740249619e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.04516492038965225</v>
+        <v>2.945285450550728e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.03224266320466995</v>
+        <v>3.353136344230734e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.02050703763961792</v>
+        <v>0.0002590394287835807</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.01122672855854034</v>
+        <v>0.0002881252148654312</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01563802547752857</v>
+        <v>0.0006403420702554286</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.03780160844326019</v>
+        <v>0.0003800053091254085</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.02078527398407459</v>
+        <v>5.152994708623737e-05</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.04722991213202477</v>
+        <v>0.0002403255348326638</v>
       </c>
       <c r="EC5" t="n">
-        <v>9.645242244005203e-05</v>
+        <v>2.582323941169307e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.01143138855695724</v>
+        <v>0.0005614386172965169</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.002917909063398838</v>
+        <v>0.0004004212678410113</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.07351061701774597</v>
+        <v>2.786407276289538e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.02690989337861538</v>
+        <v>0.0003798060934059322</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.05583300441503525</v>
+        <v>0.0003158235922455788</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.01844378560781479</v>
+        <v>0.0002672208938747644</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02450094372034073</v>
+        <v>0.0003028964274562895</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.07109205424785614</v>
+        <v>3.017525523318909e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.002263833768665791</v>
+        <v>0.000125720223877579</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.03983511403203011</v>
+        <v>0.0001690437202341855</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.02298570424318314</v>
+        <v>1.138507195719285e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.02105484157800674</v>
+        <v>5.060535477241501e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.06200111284852028</v>
+        <v>4.696422547567636e-05</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.03123427554965019</v>
+        <v>0.0003557548334356397</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.01793626323342323</v>
+        <v>0.0007872724090702832</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.05553595721721649</v>
+        <v>0.0001364841591566801</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.01493620499968529</v>
+        <v>0.0008921092376112938</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.04218081384897232</v>
+        <v>0.0003444715403020382</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.04740814119577408</v>
+        <v>0.0007857682066969573</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.01987273991107941</v>
+        <v>0.0003143110079690814</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.05080420896410942</v>
+        <v>4.940957296639681e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.04779207333922386</v>
+        <v>0.0004387787193991244</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.04489513486623764</v>
+        <v>0.0001253904774785042</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.00358867458999157</v>
+        <v>0.0005310060223564506</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0390402264893055</v>
+        <v>8.928910392569378e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.006725016981363297</v>
+        <v>6.009899152559228e-06</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.00885511189699173</v>
+        <v>0.0003021832380909473</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.01259461045265198</v>
+        <v>9.644167585065588e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.01527865044772625</v>
+        <v>4.320679363445379e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0413554310798645</v>
+        <v>0.0002183547912864015</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.03436208888888359</v>
+        <v>0.0004570137243717909</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.03216109052300453</v>
+        <v>0.0005161400185897946</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.04338773712515831</v>
+        <v>0.0001805266656447202</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.001752636395394802</v>
+        <v>0.0001017523900372908</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.04783131182193756</v>
+        <v>0.0003114248102065176</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.02380427718162537</v>
+        <v>3.064734119107015e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.03836259990930557</v>
+        <v>0.0001888346741907299</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.007447299547493458</v>
+        <v>0.0006081914762035012</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0006388202309608459</v>
+        <v>4.105435800738633e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.128120169043541</v>
+        <v>0.0004360717721283436</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.006921541877090931</v>
+        <v>0.001649515586905181</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.03754018992185593</v>
+        <v>0.0004063196538481861</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.02471110224723816</v>
+        <v>0.0005219239392317832</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01014965213835239</v>
+        <v>0.0007297386764548719</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001437836443074048</v>
+        <v>3.608522820286453e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.02030197903513908</v>
+        <v>0.0002062801067950204</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.01469382084906101</v>
+        <v>0.0003450915100984275</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.008523714728653431</v>
+        <v>0.0002207907091360539</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.04667157679796219</v>
+        <v>0.000351100810803473</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.02307780273258686</v>
+        <v>0.0005498326499946415</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.01996596716344357</v>
+        <v>0.0002321362117072567</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.04795243591070175</v>
+        <v>0.001652986858971417</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.01475294400006533</v>
+        <v>0.0005270119872875512</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02078152634203434</v>
+        <v>0.0006021971930749714</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01618073508143425</v>
+        <v>0.0001808807428460568</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.02495684660971165</v>
+        <v>0.0001348248188151047</v>
       </c>
     </row>
   </sheetData>
